--- a/src/test/resources/ORFiles/ResponsiveED 1.xlsx
+++ b/src/test/resources/ORFiles/ResponsiveED 1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2440" windowWidth="13840" windowHeight="6230" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2440" windowWidth="12150" windowHeight="6230" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="47">
   <si>
     <t>UserNames</t>
   </si>
@@ -162,13 +162,22 @@
   </si>
   <si>
     <t>……….</t>
+  </si>
+  <si>
+    <t>Anusha</t>
+  </si>
+  <si>
+    <t>anusha.g@sapphirus.in</t>
+  </si>
+  <si>
+    <t>Srinivas123</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -186,6 +195,13 @@
       <sz val="12"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -363,10 +379,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -386,8 +406,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -692,7 +714,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -743,10 +765,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1008,7 +1030,42 @@
         <v>87905633276</v>
       </c>
     </row>
+    <row r="14" spans="1:12" ht="16" thickBot="1">
+      <c r="A14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14">
+        <v>9912908023</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="G14" s="17">
+        <v>2022</v>
+      </c>
+      <c r="H14" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="J14" s="18">
+        <v>87905633276</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B14" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/test/resources/ORFiles/ResponsiveED 1.xlsx
+++ b/src/test/resources/ORFiles/ResponsiveED 1.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="50">
   <si>
     <t>UserNames</t>
   </si>
@@ -171,6 +171,15 @@
   </si>
   <si>
     <t>Srinivas123</t>
+  </si>
+  <si>
+    <t>Mamatha</t>
+  </si>
+  <si>
+    <t>19BK5A0311</t>
+  </si>
+  <si>
+    <t>……..</t>
   </si>
 </sst>
 </file>
@@ -714,7 +723,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -765,10 +774,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1062,9 +1071,42 @@
         <v>87905633276</v>
       </c>
     </row>
+    <row r="16" spans="1:12" ht="16" thickBot="1">
+      <c r="A16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16">
+        <v>9911908023</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="G16" s="17">
+        <v>2022</v>
+      </c>
+      <c r="H16" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="I16" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="J16" s="18">
+        <v>87905633276</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B14" r:id="rId1"/>
+    <hyperlink ref="B16" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/resources/ORFiles/ResponsiveED 1.xlsx
+++ b/src/test/resources/ORFiles/ResponsiveED 1.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="49">
   <si>
     <t>UserNames</t>
   </si>
@@ -159,9 +159,6 @@
   </si>
   <si>
     <t>OD</t>
-  </si>
-  <si>
-    <t>……….</t>
   </si>
   <si>
     <t>Anusha</t>
@@ -723,7 +720,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -777,7 +774,7 @@
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -932,9 +929,7 @@
       <c r="J7" s="15"/>
     </row>
     <row r="8" spans="1:12" ht="16" thickBot="1">
-      <c r="A8" s="16" t="s">
-        <v>43</v>
-      </c>
+      <c r="A8" s="16"/>
       <c r="B8" s="17" t="s">
         <v>38</v>
       </c>
@@ -1041,10 +1036,10 @@
     </row>
     <row r="14" spans="1:12" ht="16" thickBot="1">
       <c r="A14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="19" t="s">
         <v>44</v>
-      </c>
-      <c r="B14" s="19" t="s">
-        <v>45</v>
       </c>
       <c r="C14">
         <v>9912908023</v>
@@ -1062,7 +1057,7 @@
         <v>2022</v>
       </c>
       <c r="H14" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I14" s="17" t="s">
         <v>41</v>
@@ -1073,16 +1068,16 @@
     </row>
     <row r="16" spans="1:12" ht="16" thickBot="1">
       <c r="A16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C16">
         <v>9911908023</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E16" s="17" t="s">
         <v>42</v>
@@ -1094,7 +1089,7 @@
         <v>2022</v>
       </c>
       <c r="H16" s="17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I16" s="17" t="s">
         <v>41</v>
